--- a/hope/GeneratedExcel.xlsx
+++ b/hope/GeneratedExcel.xlsx
@@ -12,18 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>cell0</t>
+    <t>data0</t>
   </si>
   <si>
-    <t>cell2</t>
-  </si>
-  <si>
-    <t>cell in row2</t>
-  </si>
-  <si>
-    <t>row3</t>
+    <t>data1</t>
   </si>
 </sst>
 </file>
@@ -68,7 +62,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -78,18 +72,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/hope/GeneratedExcel.xlsx
+++ b/hope/GeneratedExcel.xlsx
@@ -12,12 +12,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>data0</t>
-  </si>
-  <si>
-    <t>data1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+  <si>
+    <t>[Background: Spasticity is a key motor impairment that affects many hemispheric stroke survivors. Intramuscular botulinum toxin (BT) injections are used widely to clinically manage spasticity-related symptoms in stroke survivors by chemically denervating muscle fibers from their associated motor neurons. In this study, we sought to understand how BT affects muscle activation, motor unit composition and voluntary force generating capacity over a time period of 3 months. Our purpose was to characterize the time course of functional changes in voluntary muscle activity in stroke survivors who are undergoing BT therapy as part of their physician-prescribed clinical plan., Method: Our assessment of the effects of BT was based on the quantification of surface electromyogram (sEMG) recordings in the biceps brachii (BB), an upper arm muscle and of voluntary contraction force. We report here on voluntary force and sEMG responses during isometric elbow contractions across consecutive recording sessions, spread over 12 weeks in three segments, starting with a preliminary session performed just prior to the BT injection. At predetermined time points, we conducted additional clinical assessments and we also recorded from the contralateral limbs of our stroke cohort. Eight subjects were studied for approximately 86 experimental recording sessions on both stroke-affected and contralateral sides., Results: We recorded an initial reduction in force and sEMG in all subjects, followed by a trajectory with a progressive return to baseline over a maximum of 12 weeks, although the minimum sEMG and minimum force were not always recorded at the same time point. Three participants were able to complete only one to two segments. Slope values of the sEMG-force relations were also found to vary across the different time segments. While sEMG-force slopes provide assessments of force generation capacity of the BT injected muscle, amplitude histograms from novel sEMG recordings during the voluntary tasks provide additional insights about differential actions of BT on the overall motor unit (MU) population over time., Conclusions: The results of our study indicate that there are potential short term as well as long term decrements in muscle control and activation properties after BT administration on the affected side of chronic stroke survivors. Muscle activation levels as recorded using sEMG, did not routinely return to baseline even at three months' post injection. The concurrent clinical measures also did not follow the same time course, nor did they provide the same resolution as our experimental measures. It follows that even 12 weeks after intramuscular BT injections muscle recovery may not be complete, and may thereby contribute to pre-existing paresis., Keywords: Botulinum toxin; Quantitative measurement; Spasticity; Stroke; Surface electromyography; Voluntary contraction.]</t>
+  </si>
+  <si>
+    <t>[Objective: To describe the effects of 2 levels of intensity of arm resistance training on grip strength, arm function, activities, participation, and adverse events in patients with subacute stroke., Design: A randomized controlled and preregistered trial with concealed allocation, assessor blinding and intention-to-treat analysis., Patients: Patients with subacute stroke and upper extremity hemiparesis., Methods: After randomization the experimental group received a 3-week high-intensity arm resistance training (HIT). The control group completed a 3-week low-intensity arm resistance training (LIT). The primary outcome was grip strength. Secondary outcomes included the Motricity Index, Fugl-Meyer Assessment for the upper limb, Box and Block Test, Goal Attainment Scale, Modified Ashworth Scale, and adverse events. All outcomes were assessed at baseline and after 3 weeks of intervention., Results: A total of 43 patients were investigated (HIT, n = 23; LIT, n = 20). All primary and secondary outcomes improved after the 3-week training, but no significant between-group differences were found. Adverse events occurred in 5% of training sessions (19/369)., Conclusion: The results of this study did not show differential effects on any outcome of 2 forms of arm resistance training in patients with subacute stroke., Keywords: rehabilitation; resistance training; strength training; stroke; upper limb.]</t>
+  </si>
+  <si>
+    <t>[Background: The Fugl-Meyer Assessment (FMA) is widely used as the gold standard in stroke research. However, the FMA has not been used in general clinical practice, which may be related to the fact that the FMA is a time-consuming measurement. Therefore, the FMA (upper extremity motor section) has already been shortened to a 6-item version using Rasch analysis for routine assessments of patients with low endurance. Although the shortened FMA has already demonstrated sound clinical utility, data on its psychometric properties remain insufficient.Objective: This study aimed to investigate the psychometric properties of the shortened FMA for the affected upper extremity in patients following stroke.Methods: A retrospective single-center study involving 30 patients was conducted. This study was registered in 2018 as a pre-initiation condition. The data used in this study were obtained from a study conducted between 2016 and 2017. The FMA (33- and 6-item versions) and the Action Research Arm Test, the Box-and-Block Test, and the Motor Activity Log were employed, and inter-rater reliability/agreement, validity, and internal consistency were assessed.Results: Regarding inter-rater reliability, the intraclass correlation coefficient was 0.994 (95% confidence interval: 0.988-0.997; P &lt; .001). The mean differences between the raters of the shortened FMA were 0.07, and the limits of agreement were calculated to be between -0.81 and 0.95. Regarding the motor-related measurements, Spearman's rho were all higher than 0.91. On the other hand, regarding the sensation and joint motion/pain domain, Spearman's rho ranged from 0.25 to 0.50, and Cronbach's alpha was 0.92.Conclusions: The shortened FMA can reliably assess the affected upper extremity in patients with hemiparesis after stroke., Keywords: Treatment outcome; psychomotor performance; reproducibility of results; retrospective studies; stroke rehabilitation; upper extremity.]</t>
+  </si>
+  <si>
+    <t>[Background: Our group developed a rehabilitation robot to assist with repetitive, active reaching movement of a paretic upper extremity. The robot is equipped with a servo motor-controlled arm-weight support and works in conjunction with neuromuscular electrical stimulation and vibratory stimulation to facilitate agonist-muscle contraction. In this before-and-after pilot study, we assessed the feasibility of applying the robot to improve motor control and function of the hemiparetic upper extremity in patients who suffered chronic stroke., Methods: We enrolled 6 patients with chronic stroke and hemiparesis who, while sitting and without assistance, could reach 10 cm both sagitally and vertically (from a starting position located 10 cm forward from the patient's navel level) with the affected upper extremity. The patients were assigned to receive reaching exercise intervention with the robot (Yaskawa Electric Co., Ltd. Fukuoka, Japan) for 2 weeks at 15 min/day in addition to regular occupational therapy for 40 min/day. Outcomes assessed before and after 2 weeks of intervention included the upper extremity component of the Fugl-Meyer Assessment (UE-FMA), the Action Research Arm Test (ARAT), and, during reaching movement, kinematic analysis., Results: None of the patients experienced adverse events. The mean score of UE-FMA increased from 44.8 [SD 14.4] to 48.0 [SD 14.4] (p = 0.026, r = 0.91), and both the shoulder-elbow and wrist-hand scores increased after 2-week intervention. An increase was also observed in ARAT score, from mean 29.8 [SD 16.3] to 36.2 [SD 18.1] (p = 0.042, r = 0.83). Kinematic analysis during the reaching movement revealed a significant increase in active range of motion (AROM) at the elbow, and movement time tended to decrease. Furthermore, trajectory length for the wrist ("hand path") and the acromion ("trunk compensatory movement") showed a decreasing trend., Conclusions: This robot-assisted modality is feasible and our preliminary findings suggest it improved motor control and motor function of the hemiparetic upper extremity in patients with chronic stroke. Training with this robot might induce greater AROM for the elbow and decrease compensatory trunk movement, thus contributing to movement efficacy and efficiency. Trial registration UMIN Clinical Trial Registry, as UMIN000018132, on June 30, 2015. https://upload.umin.ac.jp/cgi-open-bin/ctr/ctr_view.cgi?recptno=R000020398., Keywords: Electric stimulation; Exercise therapy; Hemiparesis; Reaching; Rehabilitation; Robotics; Stroke; Vibration.]</t>
+  </si>
+  <si>
+    <t>[Objective: To investigate the effects of pressure (Lycra) garment on the spasticity and function of the arm in the early stages after stroke., Design: A randomized controlled trial., Setting: Occupational therapy unit of a public hospital., Subjects: A total of 46 adults with stroke., Intervention: After random assignment, for six weeks, both intervention group and control group received a 2 hour/week conventional occupational therapy program, with the intervention group receiving an extra 6 hour/day pressure garment application (long glove)., Main measures: Modified Modified Ashworth Scale, Disabilities of Arm, Shoulder and Hand Outcome Measure, and Jebsen-Taylor Hand Function Test. Eligibility measures: Mini Mental State Examination and Modified Modified Ashworth Scale. Assessments were performed at baseline and six weeks postintervention., Results: There were 21 participants with the mean age of 51.19 (8.28) years in the intervention group and 22 participants with the mean (SD) age of 52.82 (8.71) years in the control group. The intervention group had median (interquartile range (IQR)) post-stroke duration of 1 (1) month, while for the control group, they were 2 (2) months. There was no difference in spasticity, and both perceived and actual arm functions between the groups at six weeks after baseline., Conclusion: Wearing a pressure garment on the arm for 6 hours daily had no effect in controlling spasticity or on improving arm function in the early stages after stroke., Keywords: Lycra; Stroke; arm function; pressure garment; spasticity.]</t>
+  </si>
+  <si>
+    <t>[The aim of this study was to examine the effects of instruction adherence on upper limb motor outcomes after highly structured intervention. A secondary data analysis was completed using mixed linear modeling design. Thirty chronic stroke survivors with moderate-to-severe arm impairment were assigned explicit movement instructions and completed 12 robotic therapy sessions for 4 wks. Instruction adherence was measured weekly using the Manipulation Check Questionnaire. Motor outcomes were measured at baseline, discharge, and at 4-wk follow-up using the Fugl-Meyer Assessment-Upper Extremity and Wolf Motor Function Test-Functional Ability Scale. There were no effects of adherence-related variables on upper limb motor outcomes (P &gt; 0.2). Participant scores improved for both Fugl-Meyer Assessment-Upper Extremity and Wolf Motor Function Test-Functional Ability Scale from baseline to follow-up (P &lt; 0.001). Participants improved motor function after 12 wks of robotic training; however, instruction adherence did not affect motor improvement. Adherence to explicit information may play a limited role in motor learning for stroke survivors with moderate-to-severe arm impairment during highly structured training protocols.]</t>
+  </si>
+  <si>
+    <t>[Self-reported outcomes provide unique insights about an individual's perceived manual ability after stroke. This study aimed at determining how the relationship between objective kinematic variables obtained from the target-to-target pointing task and self-reported manual ability varies during the first year in individuals after stroke. Sixty-six individuals from the Stroke Arm Longitudinal study at the University of Gothenburg (SALGOT) cohort were assessed using ABILHAND questionnaire and kinematic analysis at five timepoints between the 10th day and 12th month after stroke. Kinematic analysis was performed using a target-to-target pointing task in a virtual environment. Spearman's correlation was used to determine the extent of correlation between ABILHAND logits and kinematic variables. The correlations varied with time within the first year after stroke. The correlations were low or very low early after stroke and became moderate to high after 6 months for objective measures of movement time and smoothness, but remained low to moderate for mean velocity and low for peak velocity. Due to this discrepancy between self-perceived and objective assessments of arm function, a combination of self-reported and objective assessments of upper limb should be used as outcome measures, especially in the acute and subacute stages after stroke.]</t>
+  </si>
+  <si>
+    <t>[Background: The Action Research Arm Test (ARAT) has been extensively used for patients with stroke in many countries. However, the ARAT has been reported to have ceiling effects. Employing a time evaluation system could be expected to improve the ceiling effects in the ARAT.Objective: To investigate (1) the psychometric properties of the Japanese version of the ARAT in patients with stroke; (2) the psychometric properties of the performance timescale of the ARAT in patients with stroke.Methods: A prospective, cross-sectional, single-center study involving 30 patients with mild-to-severe hemiparesis was conducted. All patients were recruited from the college hospital in Japan from June 2016 to March 2017. The ARAT and the Fugl-Meyer Assessment, the Box-and-Block Test, and the Motor Activity Log were employed. The simultaneous/non-simultaneous inter-rater reliability/agreement, the internal consistency, the validity, and the floor/ceiling effects were assessed.Results: Regarding the ARAT score, intraclass correlation coefficient (ICC) ranged from 0.974 to 0.990 (P &lt; 0.001) for non-simultaneous evaluation; and from 0.994 to 0.998 (P &lt; 0.001) for simultaneous evaluation. Regarding the ARAT time, ICC was 0.992 (P &lt; 0.001) for non-simultaneous evaluation; and 1.000 (P &lt; 0.001) for simultaneous evaluation.Conclusions: The Japanese version of the ARAT is highly reliable and valid for measuring upper-extremity function in patients with stroke. Adding the performance timescale on the ARAT score scale can partially solve the "ceiling effect problem"., Keywords: Treatment outcome; disability evaluation; prospective studies; psychomotor performance; reproducibility of results; stroke rehabilitation; upper extremity.]</t>
+  </si>
+  <si>
+    <t>[Blood pressure (BP) management is a crucial part of critical care that directly affects morbidity and mortality. While BP has become a mainstay in patient care, the accuracy and precision of BP measures across commonly used sites (left upper arm, right upper arm, etc.) and methods have not been established. This study begins to fill this gap in literature by testing the null hypothesis that BP measurement does not vary according to site. This is a prospective, non-randomized, cross-sectional study of 80 neurocritical care unit patients. Near simultaneous non-invasive blood pressure (NIBP) readings from 4 different locations (bilateral upper arm, bilateral wrist) and, when available, intra-arterial blood pressure readings (IABP) were included. Pearson correlation coefficients and one-way repeated measures ANOVA were used to observe the systolic, diastolic, and mean arterial pressure (MAP) correlations. The BP measured at the four most common sites (left upper arm, left wrist, right upper arm, right wrist) had adequate correlation coefficients but were statistically significantly different and highly unpredictable. The median inter-site systolic variability was 10 mmHg (IQR 2 to 10 mmHg). The median inter-site MAP variability was 6mmHg with an interquartile range (IQR) of 3 to 9 mmHg. As expected, the values correlated to show that patients with high BP in one site tended to have high BP in another site. However, the unpredictable inter-site variability is concerning within the clinical setting where oftentimes BP measurement site is not standardized but resulting values are nevertheless used for treatment. There is prominent inter-site variability of BP measured across the 4 most common measurement sites. The variability persists across non-invasive (NIBP) and invasive (IABP) methods of assessment.]</t>
+  </si>
+  <si>
+    <t>[Background: Robot-based rehabilitation for persons post-stroke may improve arm function and daily-life activities as measured by clinical scales, but its effects on motor strategies during functional tasks are still poorly investigated. This study aimed at assessing the effects of robot-therapy versus arm-specific physiotherapy in persons post-stroke on motor strategies derived from upper body instrumented kinematic analysis, and on arm function measured by clinical scales., Methods: Forty persons in the sub-acute and chronic stage post-stroke were recruited. This sample included all those subjects, enrolled in a larger bi-center study, who underwent instrumented kinematic analysis and who were randomized in Center 2 into Robot (R_Group) and Control Group (C_Group). R_Group received robot-assisted training. C_Group received arm-specific treatment delivered by a physiotherapist. Pre- and post-training assessment included clinical scales and instrumented kinematic analysis of arm and trunk during a virtual untrained task simulating the transport of an object onto a shelf. Instrumented outcomes included shoulder/elbow coordination, elbow extension and trunk sagittal compensation. Clinical outcomes included Fugl-Meyer Motor Assessment of Upper Extremity (FM-UE), modified Ashworth Scale (MAS) and Functional Independence Measure (FIM)., Results: R_Group showed larger post-training improvements of shoulder/elbow coordination (Cohen's d = - 0.81, p = 0.019), elbow extension (Cohen's d = - 0.71, p = 0.038), and trunk movement (Cohen's d = - 1.12, p = 0.002). Both groups showed comparable improvements in clinical scales, except proximal muscles MAS that decreased more in R_Group (Cohen's d = - 0.83, p = 0.018). Ancillary analyses on chronic subjects confirmed these results and revealed larger improvements after robot-therapy in the proximal portion of FM-UE (Cohen's d = 1.16, p = 0.019)., Conclusions: Robot-assisted rehabilitation was as effective as arm-specific physiotherapy in reducing arm impairment (FM-UE) in persons post-stroke, but it was more effective in improving motor control strategies adopted during an untrained task involving vertical movements not practiced during training. Specifically, robot therapy induced larger improvements of shoulder/elbow coordination and greater reduction of abnormal trunk sagittal movements. The beneficial effects of robot therapy seemed more pronounced in chronic subjects. Future studies on a larger sample should be performed to corroborate present findings., Trial registration: www.ClinicalTrials.gov NCT03530358. Registered 21 May 2018. Retrospectively registered., Keywords: Kinematic analysis; Motor strategies; Robot therapy; Stroke; Trunk; Upper limb.]</t>
+  </si>
+  <si>
+    <t>[The purpose of this article is to describe arterial and venous thromboembolism in the abdomen, pelvis, and lower extremities in patients with coronavirus disease (COVID-19). Eighty-two patients with COVID-19 who underwent abdominal ultrasound or CT were retrospectively compared with 82 patients without COVID-19 for thromboembolism and solid-organ infarction. Nine (11%) patients with COVID-19 had thromboembolic findings, with medium to large arterial thrombi in five. One patient without COVID-19 had known portal vein thrombus on CT. Thromboembolic findings occurred more frequently in patients with than without COVID-19 (p = 0.02).]</t>
+  </si>
+  <si>
+    <t>[Thrombotic complications associated with coronavirus disease 2019 (COVID-19) have been described; these have mainly included venous thromboembolic events. Limited literature is available regarding arterial thrombosis. Acute limb ischemia is associated with severe complications that can result in significant morbidity and mortality. Herein, we report 3 cases of COVID-19 infection complicated by arterial thrombosis in the form of acute limb ischemia. Our case series adds to the limited literature regarding arterial thrombosis., Copyright © 2020 Elsevier Inc. All rights reserved.]</t>
+  </si>
+  <si>
+    <t>[Keywords: Bacteremia; Carbapenem-resistant klebsiella pneumoniae; Debridement; Diabetes mellitus; Necrosis of soft tissues.]</t>
+  </si>
+  <si>
+    <t>[Background: A remarkably high incidence of venous thromboembolism (VTE) has been reported among critically ill patients with COVID-19 assisted in the intensive care unit (ICU). However, VTE burden among non-ICU patients hospitalized for COVID-19 that receive guideline-recommended thromboprophylaxis is unknown., Objectives: To determine the incidence of VTE among non-ICU patients hospitalized for COVID-19 that receive pharmacological thromboprophylaxis., Methods: We performed a systematic screening for the diagnosis of deep vein thrombosis (DVT) by lower limb vein compression ultrasonography (CUS) in consecutive non-ICU patients hospitalized for COVID-19, independent of the presence of signs or symptoms of DVT. All patients were receiving pharmacological thromboprophylaxis with either enoxaparin or fondaparinux., Results: The population that we screened consisted of 84 consecutive patients, with a mean age of 67.6 ± 13.5 years and a mean Padua Prediction Score of 5.1 ± 1.6. Seventy-two patients (85.7%) had respiratory insufficiency, required oxygen supplementation, and had reduced mobility or were bedridden. In this cohort, we found 10 cases of DVT, with an incidence of 11.9% (95% confidence interval [CI] 4.98-18.82). Of these, 2 were proximal DVT (incidence rate 2.4%, 95% CI -0.87-5.67) and 8 were distal DVT (incidence rate 9.5%, 95% CI 3.23-5.77). Significant differences between subjects with and without DVT were D-dimer &gt; 3000 µg/L (P &lt; .05), current or previous cancer (P &lt; .05), and need of high flow nasal oxygen therapy and/or non-invasive ventilation (P &lt; .01)., Conclusions: DVT may occur among non-ICU patients hospitalized for COVID-19, despite guideline-recommended thromboprophylaxis., Keywords: COVID-19; deep vein thrombosis; thromboprophylaxis; venous thromboembolism., © 2020 International Society on Thrombosis and Haemostasis.]</t>
+  </si>
+  <si>
+    <t>[This study reports on the case of an elderly patient, with diabetes, and a bullous wound on the left big toe that led to an amputation of the first and second left toes. The amputation was because of deep injury as it was not able to heal with a conventional treatment. After completing the normal treatment and the removal of a bacterial infection in the lesion, the patient underwent a treatment that was based on a hydrogel gel (0.9% saline solution) and hyperbaric oxygen therapy (HBOT). After 60 sessions of the therapy, almost complete closure of the wound was observed. There were no reports of discomfort or infection during the treatment. After seven months of treatment almost complete healing was observed with no infection. This treatment appears to be effective and should be recommended for the treatment of DFUs., Keywords: HBOT; diabetic foot ulcer; hydrogel; hyperbaric oxygen therapy.]</t>
+  </si>
+  <si>
+    <t>[Introduction: Infra-inguinal vascular reconstruction with active groin infection is a concerning issue. Using resistant grafts to infection is the most adopted approach. However, in absence of these materials in acute situations, the trans-obturator approach allows for limb revascularisation avoiding the infected site. We evaluated the effectiveness of this approach in patients who needed lower limb revascularisation with an ipsilateral groin infection., Materials and methods: A retrospective study was conducted over a four-year period., Results: Over this period, 13 patients underwent trans-obturator reconstructions (13 external iliac-popliteal above-knee and one aortobipopliteal above-knee bypass). Seven patients had been previously revascularised and were admitted for graft infection (six infra-inguinal bypasses, one axillo-bifemoral bypass). Four presented with acute limb ischaemia, three with groin haematoma and one with a groin abscess. The remaining cases consisted of drug-addicted patients with injury of femoral vessels due to self-injection of drugs. The patients underwent reconstructions with autologous grafts which complicated early with groin haematoma. After transobturator revascularisation, the groin underwent debridement with applying vacuum-assisted wound closure device., Conclusion: The transobturator approach could be considered as a chance for lower limb revascularisation in case of ipsilateral groin infection. Moreover, avoiding the infected site allowed us to focus separately and safely on the treatment of the inguinal wound., Keywords: Infrainguinal bypass; Obturator foramen; Transobturator bypass; Vascular graft infection.]</t>
+  </si>
+  <si>
+    <t>[Background: Lymph node flap transfer has gradually gained popularity for the treatment of upper and lower limb lymphedema. The aim of this study is to present the outcomes of an integrated treatment protocol based on double gastroepiploic lymph node flap (DG-VLN) and active physiotherapy in patients affected by Stage II and III lower extremity lymphedema., Methods: All Stage II and III lower limb lymphedema patients operated between September 2015 and December 2017 were retrospectively identified and only those treated with an integrated approach of DG-VLN flap and active physiotherapy were included. Outcomes were assessed clinically with limb circumference measurement and radiologically with lymphoscintigraphy. Flap viability was evaluated through indocyanine green lymphography. Lymphedema related quality of life was evaluated preop and at 1 year follow up through LYMQOL questionnaire., Results: Sixteen patients met inclusion criteria. Mean follow up was 26.2 months. Significant reduction in lower limb volume was observed for all patients from pre to post intervention. At 3 months of follow up, the mean CRR was 42.4% at below knee (BK) level and 25.4% at above knee (AK) level. At 12 months of follow up, the mean CRR was 58.3% at BK level (p = .001*) and 43.4% at AK level (p &lt; .04*). LYMQOL metrics showed significantly better scores in all domains., Conclusions: Patients with lower limb lymphedema can benefit from combined DG-VLN flap and active physiotherapy, as this approach seem to fasten the onset of improvement and to have a positive impact on patients' quality of life., © 2019 Wiley Periodicals, Inc.]</t>
+  </si>
+  <si>
+    <t>[Objective: To investigate the reconstructive methods and effectiveness of modified pedicled anterolateral thigh (ALT) myocutaneous flap for large full-thickness abdominal defect reconstruction., Methods: Between January 2016 and June 2018, 5 patients of large full-thickness abdominal defects were reconstructed with modified pedicled ALT myocutaneous flaps. There were 3 males and 2 females with an average age of 43.7 years (range, 32-65 years). Histologic diagnosis included desmoid tumor in 3 cases and sarcoma in 2 cases. The size of abdominal wall defect ranged from 20 cm×12 cm to 23 cm×16 cm. Peritoneum continuity was reconstructed with mesh; lateral vastus muscular flap was used to fill the dead space and rebuild the abdominal wall strength; skin grafting was applied on the muscular flap, the rest abdominal wall soft tissue defects were repaired with pedicled ALT flap. The size of lateral vastus muscular flap ranged from 20 cm×12 cm to 23 cm×16 cm, the size of ALT flap ranged from 20 cm×8 cm to 23 cm×10 cm. The donor site was closed directly., Results: All flaps and skin grafts survived totally, and incisions healed by first intention. All patients were followed up 6-36 months (mean, 14.7 months). No tumor recurrence occurred, and abdominal function and appearance were satisfying. No abdominal hernia was noted. Only linear scar left in the donor sites, and the function and appearance were satisfying., Conclusion: Modified pedicled ALT myocutaneous flap is efficient for large full-thickness abdominal defect reconstruction, decrease the donor site morbidity, and improve the donor site and recipient site appearance., 目的: 探讨应用改良带蒂股前外侧肌皮瓣修复腹壁肿瘤术后大面积全层缺损的可行性和疗效。., 方法: 2016 年 1 月—2018 年 6 月，采用改良带蒂股前外侧肌皮瓣修复 5 例腹壁肿瘤切除后大面积全层缺损。男 3 例，女 2 例；年龄 32～65 岁，平均 43.7 岁。腹壁纤维瘤 3 例，肉瘤 2 例。肿瘤切除后腹壁缺损范围为 20 cm×12 cm～23 cm×16 cm。采用网片固定重建腹膜连续性，股外侧肌瓣封闭缺损，表面植皮联合股前外侧皮瓣修复腹壁皮肤软组织缺损。股外侧肌瓣切取范围为 20 cm×12 cm～23 cm×16 cm，皮瓣切取范围为 20 cm×8 cm～23 cm×10 cm。供区直接缝合。., 结果: 术后所有皮瓣和植皮均顺利成活，供受区创面均Ⅰ期愈合。患者均获随访，随访时间 6～36 个月，平均 14.7 个月。随访期间无肿瘤复发，皮瓣质地良好、外形不臃肿，腹壁外观、功能恢复满意，未见腹壁疝表现。供区外观影响小，下肢关节活动无影响。., 结论: 改良带蒂股前外侧肌皮瓣可用于修复腹壁肿瘤术后大面积全层缺损，不但减少了供区并发症，还可改善供、受区外形。., Keywords: Abdominal wall defect; abdominal wall tumor; modified pedicled anterolateral thigh myocutaneous flap; wound repair.]</t>
+  </si>
+  <si>
+    <t>[Study design: Retrospective study., Objective: The purpose of this study was to examine motor and sensory impairments of the lower extremities after L2 nerve root transection during total en bloc spondylectomy (TES) for spinal tumors., Summary of background data: At our institute, for TES at L3 to L5 lumbar levels, the nerve roots are preserved. However, at the level of L1 and L2, the vertebral resection and spinal reconstruction via a posterior approach is employed with transection of the nerve roots during dissection and resection of the vertebra., Methods: This study included 13 patients who had undergone TES for spinal tumors involving L2 between 2007 and 2016. Postoperative motor function of the lower extremities was quantified using the Manual Muscle Testing grade for the iliopsoas (IP) and quadriceps femoris (QF) muscles, and a grade of the modified Frankel Classification. Postoperative sensory impairment was quantified by the sites of lower extremity pain and numbness., Results: An initial decrease in strength of the IP and QF muscles in more than 60% of the patients, with a decline in the modified Frankel grade in 76.9%, was observed at 1-week after surgery. All patients recovered by the final follow-up, with 12 of the 13 patients walking without a gait aid. The other patient, who had undergone a bilateral dissection of L3 nerve root during TES of L2 and L3, had a mild QF muscle weakness, requiring a cane for walking. Eleven of 13 patients developed pain or numbness in the groin or thigh area after surgery, with the most common area being the anterior aspect of the thigh., Conclusion: Although IP and QF weakness was observed in the majority of patients who underwent bilateral transection of L2 nerve roots during TES, these deficits recovered over time and did not finally affect activities of daily living., Level of evidence: 4.]</t>
+  </si>
+  <si>
+    <t>[Cerebrovascular accident frequently causes spastic equinovarus contracture of the foot and ankle, for which traditional surgical correction involves tendon transfer, osteotomy, and hindfoot fusion, which can be challenging for patients after cerebrovascular accident. We prospectively assessed the efficacy of a minimally invasive, ambulatory approach to correct this complex deformity in 12 consecutive patients. Surgery included Achilles tendon lengthening, lengthening of the posterior tibial tendon, and flexor tenotomy of all 5 digits. The 10-cm visual-analog scale and the Bristol Foot Score were used to assess pain and subjective foot-related quality of life, respectively. The mean patient age was 61.5 ± 5.68 years, and the duration of follow-up was 29.3 ± 18.5 (range 12.2 to 63.3) months. All patients had a preoperative equinovarus foot structure and all had a rectus foot in weightbearing stance at the 1-year postoperative evaluation. Nine (75.0%) patients showed no residual or recurrent deformity, whereas 3 (25.5%) displayed incomplete release of digital contractures; all patients were treated with in-office flexor tenotomy. Preoperative maximum ankle dorsiflexion was ≤90° in 12 (100%) patients and &gt;90° in 9 (75.0%) patients postoperatively. The mean visual-analog scale score decreased in 10 (83.3%) patients, although a statistically significant decrease was not observed (p = .0535). The Bristol Foot Score improved from 55.17 ± 11.10 preoperatively to 36.83 ± 13.26 postoperatively, and this improvement was statistically significant (p = .0022). These outcomes demonstrate the effectiveness of the minimally invasive, ambulatory surgical approach to spastic equinovarus contracture without identified patient harm., Keywords: cerebrovascular accident; contracture; equinovarus; quality of life; tendon lengthening., Copyright © 2019 the American College of Foot and Ankle Surgeons. Published by Elsevier Inc. All rights reserved.]</t>
+  </si>
+  <si>
+    <t>[Background: Isolated gastrocnemius contracture is thought to lead to numerous conditions. Although many techniques have been described for gastrocnemius recession, potential anesthetic, cosmetic, and wound-related complications can lead to patient dissatisfaction. Open and endoscopic recession techniques require epidural anesthesia, lower limb ischemia, and stitches and may lead to damage of the sural nerve, which is not under the complete control of the surgeon at all stages of the procedure. The purpose of this study was to evaluate the safety and efficacy of a new technique based on ultrasound-guided ultra-minimally invasive gastrocnemius recession., Methods: We performed a pilot study with 22 cadavers to ensure that the technique was effective and safe. In the second phase, we prospectively performed gastrocnemius recession in 23 patients (25 cases) with chronic non-insertional Achilles tendinopathy, equinus foot, and other indications. In the clinical study, we evaluated the range of dorsiflexion before and after the procedure, clinical outcomes with VAS and AOFAS scores, and potential complications, including neurovascular injuries., Results: We achieved complete release of the gastrocnemius tendon in all cases in the cadaveric study, with no damage to the sural nerve or vessels and minimal damage to the underlying muscle fibers. Ankle dorsiflexion increased for every patient in the study (mean, 14°; standard deviation, 3°) and was maintained throughout follow-up. The mean preoperative VAS score was 7 (6-9), which improved to 0 (0-1). The AOFAS Ankle-Hindfoot Score improved from a mean of 30 (20-40) to 93 (85-100) at 6 months. No major complications were observed. All patients returned to their previous sports after 6 months., Conclusions: After cadaveric and clinical study, we considered the technique to be safe and effective to perform ultrasound-guided ultra-minimally invasive gastrocnemius recession using a 1-mm incision in vivo. This novel technique represents an alternative to open techniques, with encouraging results and with the advantages of reducing pain, obviating lower limb ischemia, deeper anaesthesia, thus decreasing complications and contraindications and accelerating recovery., Keywords: Achilles tendinopathy; Equinus foot; Gastrocnemius recession; Ultrasound-guided; Ultra–minimally invasive surgery.]</t>
+  </si>
+  <si>
+    <t>[Achilles tendon pathologic conditions are implicated in contributing to the development of many diabetic foot complications including diabetic foot ulceration and Charcot neuroarthropathy. Surgical correction of the diabetic equinus deformity has been studied as an isolated or adjunctive treatment when dealing with difficult-to-close diabetic foot ulcerations or when surgically addressing the diabetic Charcot neuroarthropathy foot or ankle. This article reviews the most common indications, complications, and surgical procedures for equinus correction by either a tendo-Achilles lengthening or gastrocnemius recession for the management of diabetic foot conditions., Keywords: Achilles tendon; Charcot neuroarthropathy; Diabetic Charcot foot; Diabetic foot ulcer; Diabetic neuropathy; Equinus., Copyright © 2016 Elsevier Inc. All rights reserved.]</t>
+  </si>
+  <si>
+    <t>[Background: The main purpose of this study was to investigate the presence of an association between intermetatarsal neuroma and foot type, as measured by the Foot Posture Index. The study also examined whether there was a relationship between foot type and the interspace affected with intermetatarsal neuroma, and whether ankle equinus or body mass index had an effect., Methods: In total, 100 participants were recruited from The University of Western Australia's Podiatry Clinic, 68 of whom were diagnosed with inter-metatarsal neuroma from 2009 to 2015. There were 32 control participants recruited from 2014 to 2015. The age of subjects was recorded, as were weight and height, which were used to calculate body mass index. The foot posture index and ankle dorsiflexion were measured using standard technique. Independent t-tests and Kruskal-Wallis tests were used to compare differences in foot posture index, body mass index and ankle dorsiflexion between the inter-metatarsal neuroma and control groups. Multivariable logistic regression was also used to model relationships for outcome., Results: The 68 intermetatarsal neuroma subjects had a mean age of 52 years (range 20 to 74 years) and comprised of 56 females and 12 males. The 32 control subjects had a mean age of 49 years (range 24 to 67 years) with 26 females and six males. There were no significant differences between the control and the intermetatarsal neuroma groups with respect to the mean foot posture index scores of the left and right foot (p = 0.21 and 0.87, respectively). Additionally no significant differences were detected between the affected intermetatarsal neuroma interspace and foot posture index (p = 0.27 and 0.47, respectively). There was no significant difference in mean body mass index between the intermetatarsal neuroma (26.9 ± 5.7) and control groups (26.5 ± 4.1) (p = 0.72). There was, however, a significant difference in mean ankle dorsiflexion between the intermetatarsal neuroma and control groups (p &lt; 0.001 for both feet). Logistic regression models, adjusted for age, sex, foot posture index and body mass index estimated that the odds of having an intermetatarsal neuroma in the right foot increased by 61% (OR 1.61; 95% CI 1.32-1.96) with each one degree reduction of ankle dorsiflexion, and in the left foot by 43% (OR 1.43; 95% CI 1.22-1.69)., Conclusion: No relationships were found between foot posture index and body mass index with intermetatarsal neuroma, or between foot posture index and the interspaces affected. However, a strong association was demonstrated between the presence of intermetatarsal neuroma and a restriction of ankle dorsiflexion., Keywords: Body mass index; Equinus deformity; Neuroma.]</t>
+  </si>
+  <si>
+    <t>[Purpose: Shunt procedures used to treat cryptococcal meningitis complicated with hydrocephalus and/or increased intracranial pressure (IICP) could result in cerebrospinal fluid (CSF) overdrainage, thereby presenting therapeutic challenges., Methods: We analyzed the clinical features and neuroimaging findings after the ventriculoperitoneal (VP) shunt procedure in 51 HIV (Human Immunodeficiency Virus)-negative patients with cryptococcal meningitis, to assess the risk factors associated with post-shunt CSF overdrainage., Results: Symptomatic CSF overdrainage occurred in 12% (6/51) of patients with cryptococcal meningitis who underwent the shunt procedure. Rapid deterioration of neurological conditions was found in 6 patients after the shunt procedure was performed, including disturbed consciousness, quadriparesis, and dysphasia in 5 patients and severe ataxia in 1. The mean duration of CSF overdrainage after the shunting procedure was 2-7 days (mean 4 days). The mean interval between meningitis onset to shunting procedure remained independently associated with CSF overdrainage, and the cut-off value for predicting CSF overdrainage in interval between meningitis onset to shunting procedure was 67.5 days., Conclusions: CSF overdrainage after the VP shunt procedure is not rare, especially in patients with a high-risk of cryptococcal meningitis who also have a prolonged duration of hydrocephalus and/or IICP., Keywords: CSF overdrainage; HIV-Negative cryptococcal meningitis; Outcome; Risk factor; Ventriculoperitoneal shunt procedures., Copyright © 2017. Published by Elsevier B.V.]</t>
+  </si>
+  <si>
+    <t>[Background: Gastrocnemius recession has become a popular procedure to treat the equinus ankle caused by a tight gastrocnemius. The aim of our study was to prospectively evaluate the safety and efficacy of the endoscopic gastrocnemius recession procedure using a single portal technique., Methods: The endoscopic gastrocnemius recession procedure was performed on 56 feet in 54 consecutive patients through a single lateral portal using the Smart Release Endoscopic Carpal Tunnel Release System. The minimum follow-up was 12 months. Functional outcomes were assessed with the Short Form 36 (SF-36), American Orthopaedic Foot and Ankle Society (AOFAS) Hindfoot score and modified Olerud and Molander (O&amp;M) score. A modified Likert scale and visual analogue scores (VAS) were used to evaluate patient satisfaction and pain scores, respectively. Postoperative morbidities were documented for wound complications, scar hypersensitivity, sural nerve deficit and plantar flexion weakness. A p-value &lt;0.05 was considered statistically significant., Results: Endoscopic gastrocnemius recession procedure performed through a single lateral portal was successfully performed in all cases. Seven out of the eight component scores of the SF-36 questionnaire showed significant improvements. The AOFAS Hindfoot score showed a significant improvement of 20.69 ± 19.20. The modified O&amp;M score also revealed significant improvements in eight out of nine component scores. There was a significant improvement of 3.79 ± 2.49 in VAS scores. A total of 91.07 % of all cases reported good or very good outcomes on the Likert scale. Eleven complications were recorded (three cases of unsatisfactory operative scar, three cases of sural nerve dysesthesia and five cases of subjective plantar flexion weakness with complete resolution in two out of the five patients.)., Conclusion: This study demonstrates that the endoscopic gastrocnemius recession procedure performed through a single portal technique has low morbidity with good to excellent results., Level of evidence: Level III, retrospective study.]</t>
+  </si>
+  <si>
+    <t>[Background: The bridle procedure is a tritendon anastomosis between the tibialis posterior, peroneus longus, and tibialis anterior, utilized in the treatment of drop foot. Concerned about the potential for acquired flatfoot deformity following the bridle procedure, the authors hypothesized that placing a sinus tarsi implant would prevent this potential sequela., Materials and methods: Over a 10-year period, 15 patients (16 feet) were treated with a bridle procedure for drop foot, and 9 of these feet also had a subtalar arthroereisis implanted; 8 patients (9 feet) positively responded to requests for long-term follow-up evaluation and returned for subjective evaluation with the American Orthopaedic Foot and Ankle Society (AOFAS) Hindfoot Scale and Short Form (SF)-36 forms and objective clinical and radiographic measurements., Results: At an average follow-up of 61 months, the 8 patients (9 feet) who returned for long-term evaluation maintained a plantigrade foot, were able to dorsiflex above neutral both actively and passively, and did not develop a flatfoot deformity at long-term follow-up. There were no significant differences between those who had a sinus tarsi implant (6 feet) and those who did not (3 feet). Although 7 of the 9 feet evaluated in this study wore a brace preoperatively, none continued to use a brace after surgery. The major complaints were occasional pain at the subtalar arthroereisis site and a feeling that the great toe was dragging., Conclusion: The bridle procedure provided excellent outcomes in patients with drop foot, with patients achieving long-term success in being free from brace wear. The ability to actively dorsiflex the foot during gait was also restored, reestablishing a normal heel-to-toe gait pattern., Levels of evidence: Therapeutic, Level IV: Case series., Keywords: bridle; drop foot; equinus; foot drop; peroneal nerve palsy; sinus tarsi implant; subtalar arthroereisis; tendon transfer; tibialis posterior., © 2014 The Author(s).]</t>
+  </si>
+  <si>
+    <t>[Background: Dynamic analyses of walking rely on the 3D ground reaction forces (GRF) under each foot, while only the resultant force of both limbs may be recorded on a single-belt instrumented treadmill or when both feet touch the same force platform., Research question: This study aims to develop a robust decomposition of the shear GRF to complete the most accurate decomposition of the vertical GRF [8]., Methods: A retrospective study of 374 healthy adults records (age: 22.8 ± 2.6 years, speed: 1.34 ± 0.28 m/s) and of 434 patient records (age: 21.3 ± 17.8 years, speed: 0.64 ± 0.19 m/s) were used in a machine learning process to develop a robust predictive model to decompose the fore-aft GRF. The lateral GRF was decomposed by resolving the equilibrium of transverse moments around the center of pressure., Results: A predictive linear model of the fore-aft GRF under the back foot every 5% of the double contact phase was obtained from 2 predictors: the total fore-aft GRF and the vertical GRF under the back foot. Each predictor uses a time series of 31 samples before and during the double contact. The model performs accurately in healthy (median[IQR] error of 3.0[2.2-4.1]%) and in clinical gaits (7.7[4.7-13.4]%). The error in lateral GRF decomposition is of 5.7[3.9-10.2]% in healthy gaits and of 12.0[7.2-19.2]% in patients under the back foot and about half of that under the front foot., Significance: The decomposition of shear GRFs achieved in this study supports the mechanics of walking. It provides outstanding accuracy in healthy gait and also applies to neurologic and orthopedic disorders. Together with the vertical GRF decomposition [8], this approach for the shear components paves the way for robust single limb GRF determination on a single-belt instrumented treadmill or when both feet touch the same force platform in normal and clinical gait analysis., Keywords: Decomposition; Double contact; Ground reaction force; Machine learning; Walking., Copyright © 2019 Elsevier B.V. All rights reserved.]</t>
+  </si>
+  <si>
+    <t>[Background: A dynamic-ankle-foot orthosis has recently emerged and consists of an elastic band allowing the variation of stiffness degree and adjusts dorsiflexion assistance in swing. The aim of this study was to quantify the biomechanical adaptations induced by this orthosis during gait in hemiplegic patients., Methods: Twelve hemiplegic patients performed two gait analyses (without and with the ankle-foot orthosis). Spatiotemporal, kinematic, kinetic and electromyographic gait parameters were quantified using an instrumented gait analysis system during the stance and swing phases., Results: During swing, peak ankle dorsiflexion was greater with the orthosis and associated with a decrease of pelvic obliquity angle. In stance, peak ankle plantarflexion and dorsiflexion were greater with the orthosis and associated with an increase of ankle angle at heel strike and toe-off. Electromyographic activities of both the tibialis anterior and the medial gastrocnemius were greater with the orthosis., Conclusions: This dynamic-ankle-foot orthosis improved gait in hemiplegic patients with spastic foot equinus. The spatiotemporal adaptations seem to be caused mainly by the increase of ankle dorsiflexion during stance and swing phases. The changes in electromyographic activity were related to an active dorsiflexion in stance and swing phases and an active plantarflexion in stance phase., Keywords: Foot deformity; dynamic ankle-foot-orthosis; kinematic; muscular activity.]</t>
+  </si>
+  <si>
+    <t>[Background: Many previous studies have demonstrated that botulinum toxin A (BTX-A) injections satisfactorily reduce spasticity. Nevertheless, BTX-A, with or without an adjuvant therapy, effectively improves the direct functional movement in few patients with spastic upper extremity paralysis. Therefore the present study aimed to determine the effectiveness of task-orientated therapy on spasticity and functional movement by using electromyography-triggered functional electrical stimulation (EMG-FES) after BTX-A injections., Design: Open-label, prospective clinical trial Method: The subjects were 15 patients with spastic paresis (12 male, 3 female; age range, 17-74 years; 14 due to stroke, 1 due to spinal cord injury) who received BTX-A injections. Before the study was started, all subjects had undergone task-orientated therapy sessions with EMG-FES for 4 months. Despite all patients showing a various extent of improved upper extremity function, upper extremity function reached a plateau because of upper extremity spasticity. After BTX-A injection, all patients underwent task-orientated therapy sessions with EMG-FES for 4 months. The outcomes were assessed with the modified Ashworth scale, the simple test for evaluating hand function, box and block test, grip and release test, finger individual movement test, and grip strength. Assessments were performed at baseline and 10 days and 4 months after BTX-A injection., Results: The median modified Ashworth scale score decreased from 2 at baseline to 1 at 10 days and 4 months after BTX-A injection. The finger individual movement test score increased slightly at 10 days (p=0.29) and further increased at 4 months (p&lt;0.05). The simple test for evaluating hand function, grip and release test, box and block test, and grip strength decreased after 10 days (p&lt;0.05, p=0.26, p&lt;0.01, and p&lt;0.01, respectively) but increased after 4 months (p&lt;0.01, p&lt;0.05, p&lt;0.01, and p=0.18, respectively)., Conclusion: Task-orientated therapy with EMG-FES after BTX-A injection effectively reduced spasticity and improved upper limb motor function. Our results also suggest that spasticity occurs as a compensation for the force of the affected muscles and leads to misuse movements and ostensible dexterity in many patients. In addition, we hypothesize that BTX-A injection initializes the abnormal adapted movement pattern and that more active hand movements with facilitation of the paretic muscles when using EMG-FES induce an efficient muscle reeducation of the inherent physiological movement pattern that ultimately could prove useful in the activities of daily living.]</t>
+  </si>
+  <si>
+    <t>[Background: We aimed to report surgical and oncological outcomes of renal cell carcinoma (RCC) patients with level I and II thrombus treated with laparoscopic transperitoneal radical nephrectomy., Patients and methods: Medical records of 13 patients were reviewed retrospectively in a single center between 2005 and 2017. Hem-o-lok® clips were used to secure renal artery and renal vein, excluding 2 patients with an attached thrombus on the right side., Results: Seven male and 6 female patients were treated laparoscopically, and conversion to open surgery was not required in any case. The mean age was 61.6 ± 7.8 years (range 45 to 75 years) and the mean body mass index was 27 ± 4.6 kg/m2 (range 18.8 to 34.5 kg/m2). Median tumor size was 9.5 × 7.3 cm (range 5 to 14 cm) and 5 patients who had preoperative metastases underwent cytoreductive nephrectomy. The mean operative time was 137.6 ± 45.8 minutes (range 60 to 200 minutes) and blood loss was 105 ± 34.9 mL (range 50 to 150 mL). The mean hospital stay was 4.4 ± 3.9 days (range 1 to 15 days). Splenic capsular injury occurred in 1 patient and the vena cava was injured in another. Three patients needed blood transfusions. The mean follow-up period was 25 months (range 12 to 86 months)., Conclusion: Laparoscopic transperitoneal radical nephrectomy can be reliable option for surgical management of RCC with level I and II thrombus in experienced centers., Keywords: laparoscopy; nephrectomy; renal cancer; thrombus.]</t>
+  </si>
+  <si>
+    <t>[Treatment of snakebite complications is challenging, as it is difficult to distinguish what kind of antivenins should be used. Kidney failure as a result of rhabdomyolysis or hemolysis may happen due to accumulated fluids that increase the pressure in the abdomen. This case report describes acute kidney failure probably due to intra-abdominal hypertension following an unknown bite.]</t>
+  </si>
+  <si>
+    <t>[Objective: To present our technique and initial results of dual combined retroperitoneal and transperitoneal laparoscopic approach for the treatment of renal-cell carcinoma (RCC) with level 0-II venous tumor thrombus., Patients and methods: We included nine consecutive patients with RCC and level 0-II inferior vena cava (IVC) thrombus who underwent laparoscopic radical nephrectomy and IVC thrombectomy using dual combined laparoscopic approach in our department between January 2016 and June 2017., Results: The mean operative time was 150 minutes when cavotomy was not performed and 240 minutes when cavotomy with thrombectomy was required. The mean IVC clamping time was 24 minutes and the mean blood loss was 300 mL. We encountered no major intraoperative or postoperative complications (Clavien III-IV). The patients were discharged a mean of 7 days after the procedure. At the 6-month follow-up, all patients were alive. One patient presented a retroperitoneal enlarged lymph node and started systemic treatment., Conclusions: The dual combined laparoscopic approach for kidney tumors with level 0-II IVC thrombus is feasible, reproducible, and especially useful in patients with complex renal pedicle. The technique provides early arterial control by retroperitoneal approach, which reduces the blood flow through the renal vein and has the advantage of minimal mobilization of the thrombus-bearing renal vein; it therefore lowers the risk of tumor embolism and intraoperative hemorrhage., Keywords: inferior vena cava thrombus; laparoscopic surgery; renal-cell carcinoma; retroperitoneal approach; transperitoneal approach.]</t>
+  </si>
+  <si>
+    <t>[Background: The purpose of this study was to determine whether local injection of botulinum toxin type A (BoNT-A) into the spastic muscles has any added benefits to repetitive transcranial magnetic stimulation (RTMS)/occupational therapy (OT) in patients with spastic upper limb hemiparesis., Methods: The study subjects of 80 post-stroke patients with spastic upper limb hemiparesis (age: 60.2 ± 13.0 years, time after stroke: 55.3 ± 43.0 months), were divided into the BoNT-A plus RTMS/OT group and RTMS/OT group. BoNT-A was injected into the spastic muscles (total dose: 240 units) before RTMS/OT. The latter included 12 sessions of 40 min RTMS over the non-lesional hemisphere and 240-min intensive OT daily over 15 days. Spasticity was evaluated by the modified Ashworth scale (MAS) and the motor function of the affected upper limb was evaluated serially with Fugl-Meyer Assessment and Wolf Motor Function Tests., Results: Both groups showed significant improvements in spasticity and motor function. The addition of BoNT-A resulted in better improvement in FMA score and MAS of finger flexor muscles (p &lt; 0.05)., Conclusions: The triple-element protocol of local injection of BoNT-A into spastic finger muscles, RTMS and intensive OT, is a promising therapeutic program for post-stroke spastic upper limb hemiparesis, although its significance should be confirmed in randomized, placebo-controlled trials., © 2014 S. Karger AG, Basel.]</t>
+  </si>
+  <si>
+    <t>[Reported is a case of a man aged 55 years who presented with progressive spastic paraparesis. Examination demonstrated multiple cutaneous telangiectases. Subsequent development of upper limb weakness, acute urinary retention and eventual respiratory compromise resulted in the requirement for intensive care unit admission and mechanical ventilation. MRI spine revealed diffuse T2 hyperintensity in the cervical cord with enhancement and cord expansion. Immunomodulatory therapy for a presumed diagnosis of transverse myelitis yielded no response, so a vascular aetiology was suspected. Spinal angiography demonstrated an arteriovenous fistula involving the upper cervical cord. Endovascular embolisation was successfully performed and a marked clinical improvement was achieved. Cervical arteriovenous fistulas can cause progressive myelopathy, subarachnoid haemorrhage and brainstem dysfunction. Management typically comprises endovascular embolisation or surgical interruption. A clinical diagnosis of hereditary haemorrhagic telangiectasia was also made in this case, and spinal arteriovenous fistula formation has been associated with this condition., 2017 BMJ Publishing Group Ltd.]</t>
+  </si>
+  <si>
+    <t>[Background: Decompression sickness may involve the central nervous system. The most common site is spinal cord. This study was conducted to determine the relationship between magnetic resonance(MR) imaging findings of spinal damage., Methods: We conducted a retrospective review of 12 patients (male=10, female=2) who presented with spinal cord symptoms. We investigated their clinical features, neurological findings and radiologic findings., Results: The depth and bottom time of the dive were 34.5 meters (range 22-56) and 22.7 minutes (range 10-55) respectively. Most divers ascended within appropriate time frame as shown by the decompression tables. The most frequent initial symptoms were lower limb weakness (n=12), followed by sensory disturbances (n=10) and bladder dysfuction (n=5). The chief radiologic abnormalities were continuous (n=3), or non-continuous (n=5) high-signal intensity on T2-weighted images at posterior paramedian portion of the spinal cord, mainly thoracic level. There were no abnormal findings in the remaining four (4) patients, and they showed good prognosis. All patients were treated with hyperbaric oxygen therapy and some received high-dose dexamethasone. On discharge, five (5) patients had made a full recovery, seven (7) had some residual neurological sequelae, and all patients except one (1) regained normal bladder function., Conclusions: Spinal cord decompression sickness is a neurological emergency. Early recognition and treatment may minimize neurological damage. Initial normal finding in MR imaging was a good predictor for prognosis in spinal decompression sickness., Keywords: decompression sickness; hyperbaric oxygen therapy; magnetic resonance imaging; spinal cord.]</t>
+  </si>
+  <si>
+    <t>[The aim of this study was to evaluate the occurrence of pulmonary embolism in returning travelers with hypoxemic pneumonia due to COVID-19. All returning travelers to Reunion Island with hypoxemic pneumonia due to COVID-19 underwent computed tomography pulmonary angiography (CTPA) and were included in the cohort. Thirty-five patients were returning travelers with hypoxemic pneumonia due to COVID-19 and had recently returned from one of the countries most affected by the COVID-19 outbreak (mainly from France and Comoros archipelago). Five patients (14.3%) were found to have pulmonary embolism and two (5.9%) were incidentally found to have deep vein thrombosis on CTPA. Patients with pulmonary embolism or deep vein thrombosis had higher D-dimer levels than those without pulmonary embolism or deep vein thrombosis (P = 0.04). Returning travelers with hypoxemic pneumonia due to COVID-19 should be systematically screened for pulmonary embolism.]</t>
+  </si>
+  <si>
+    <t>[Keywords: pneumonia (infectious disease); respiratory medicine.]</t>
+  </si>
+  <si>
+    <t>[Autopsies of deceased with a confirmed severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection can provide important insights into the novel disease and its course. Furthermore, autopsies are essential for the correct statistical recording of the coronavirus disease 2019 (COVID-19) deaths. In the northern German Federal State of Hamburg, all deaths of Hamburg citizens with ante- or postmortem PCR-confirmed SARS-CoV-2 infection have been autopsied since the outbreak of the pandemic in Germany. Our evaluation provides a systematic overview of the first 80 consecutive full autopsies. A proposal for the categorisation of deaths with SARS-CoV-2 infection is presented (category 1: definite COVID-19 death; category 2: probable COVID-19 death; category 3: possible COVID-19 death with an equal alternative cause of death; category 4: SARS-CoV-2 detection with cause of death not associated to COVID-19). In six cases, SARS-CoV-2 infection was diagnosed postmortem by a positive PCR test in a nasopharyngeal or lung tissue swab. In the other 74 cases, SARS-CoV-2 infection had already been known antemortem. The deceased were aged between 52 and 96 years (average 79.2 years, median 82.4 years). In the study cohort, 34 deceased were female (38%) and 46 male (62%). Overall, 38% of the deceased were overweight or obese. All deceased, except for two women, in whom no significant pre-existing conditions were found autoptically, had relevant comorbidities (in descending order of frequency): (1) diseases of the cardiovascular system, (2) lung diseases, (3) central nervous system diseases, (4) kidney diseases, and (5) diabetes mellitus. A total of 76 cases (95%) were classified as COVID-19 deaths, corresponding to categories 1-3. Four deaths (5%) were defined as non-COVID-19 deaths with virus-independent causes of death. In eight cases, pneumonia was combined with a fulminant pulmonary artery embolism. Peripheral pulmonary artery embolisms were found in nine other cases. Overall, deep vein thrombosis has been found in 40% of the cases. This study provides the largest overview of autopsies of SARS-CoV-2-infected patients presented so far., Keywords: Autopsy; COVID-19; Coronavirus; Pulmonary embolism; SARS-CoV-2; Venous thromboembolic disease.]</t>
+  </si>
+  <si>
+    <t>[Background: Guidelines recommend combined therapy of glucocorticoid and cyclophosphamide (CYC) for patients with idiopathic membranous nephropathy (IMN), while it is associated with severe adverse effects. We conducted a retrospective study to evaluate the effectiveness and safety of glucocorticoid plus tacrolimus (TAC) for IMN. Methods: Two hundred and three kidney-biopsy-proven IMN patients were enrolled in this study. One group (n = 142) received glucocorticoid combined with intravenous CYC (750 mg/m2 body surface) and the other group (n = 61) received glucocorticoid combined with oral TAC (target blood concentration of 4-8 ng/mL). The primary outcomes were achievement of remission and incidence of adverse events. The secondary end points included relapse rates, 24 h urinary protein (UP), serum albumin, serum creatinine and estimated glomerular filtration rate. Results: Over the 18-month observation period, the study suggested that the remission rates at the first 3 months were significantly higher in TAC group than in CYC group (72.1% versus 54.9%, p &lt; .05). Although the cumulative incidence of serious and non-serious adverse events was not different significantly between the two groups, the incidence after first 3 months was lower in TAC group. 24hUP and serum albumin improved in TAC group more than the CYC group (p &lt; .05) over the observed period. Conclusion: Because of its short-term effectiveness and long-term safety profile, glucocorticoid plus TAC might be a better option for IMN., Keywords: Idiopathic membranous nephropathy; cyclophosphamide; effectiveness; retrospective study; tacrolimus.]</t>
   </si>
 </sst>
 </file>
@@ -62,18 +173,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A2:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
